--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt10b</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt10b</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +546,10 @@
         <v>0.582715</v>
       </c>
       <c r="I2">
-        <v>0.8115248322016797</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8659267272765098</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N2">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O2">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P2">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q2">
-        <v>0.2385020121944444</v>
+        <v>0.20152848646</v>
       </c>
       <c r="R2">
-        <v>2.14651810975</v>
+        <v>1.81375637814</v>
       </c>
       <c r="S2">
-        <v>0.04277654692437012</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="T2">
-        <v>0.05124328737324574</v>
+        <v>0.0439159257402554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.582715</v>
       </c>
       <c r="I3">
-        <v>0.8115248322016797</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8659267272765098</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P3">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q3">
         <v>1.238801523287222</v>
@@ -638,10 +638,10 @@
         <v>11.149213709585</v>
       </c>
       <c r="S3">
-        <v>0.2221853434413557</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="T3">
-        <v>0.2661623768795204</v>
+        <v>0.2699524849277078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,10 +670,10 @@
         <v>0.582715</v>
       </c>
       <c r="I4">
-        <v>0.8115248322016797</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8659267272765098</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N4">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O4">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P4">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q4">
-        <v>0.9399308198077778</v>
+        <v>1.211914988441111</v>
       </c>
       <c r="R4">
-        <v>8.45937737827</v>
+        <v>10.90723489597</v>
       </c>
       <c r="S4">
-        <v>0.1685813652020234</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="T4">
-        <v>0.2019485901490535</v>
+        <v>0.2640935262839185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>0.582715</v>
       </c>
       <c r="I5">
-        <v>0.8115248322016797</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8659267272765098</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N5">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O5">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P5">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q5">
-        <v>1.483180798971667</v>
+        <v>0.7439208710091666</v>
       </c>
       <c r="R5">
-        <v>8.899084793829999</v>
+        <v>4.463525226054999</v>
       </c>
       <c r="S5">
-        <v>0.2660160074155304</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="T5">
-        <v>0.212445614773883</v>
+        <v>0.1080739644693659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.582715</v>
       </c>
       <c r="I6">
-        <v>0.8115248322016797</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8659267272765098</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N6">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O6">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P6">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q6">
-        <v>0.6242676296966667</v>
+        <v>1.440769117872778</v>
       </c>
       <c r="R6">
-        <v>5.61840866727</v>
+        <v>12.966922060855</v>
       </c>
       <c r="S6">
-        <v>0.1119655692184001</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="T6">
-        <v>0.1341268581008072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.0451115</v>
-      </c>
-      <c r="H7">
-        <v>0.090223</v>
-      </c>
-      <c r="I7">
-        <v>0.1884751677983203</v>
-      </c>
-      <c r="J7">
-        <v>0.1340732727234901</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.227883333333333</v>
-      </c>
-      <c r="N7">
-        <v>3.68365</v>
-      </c>
-      <c r="O7">
-        <v>0.05271132222573729</v>
-      </c>
-      <c r="P7">
-        <v>0.05917739429803119</v>
-      </c>
-      <c r="Q7">
-        <v>0.05539165899166667</v>
-      </c>
-      <c r="R7">
-        <v>0.33234995395</v>
-      </c>
-      <c r="S7">
-        <v>0.009934775301367167</v>
-      </c>
-      <c r="T7">
-        <v>0.007934106924785446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.0451115</v>
-      </c>
-      <c r="H8">
-        <v>0.090223</v>
-      </c>
-      <c r="I8">
-        <v>0.1884751677983203</v>
-      </c>
-      <c r="J8">
-        <v>0.1340732727234901</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6.377739666666666</v>
-      </c>
-      <c r="N8">
-        <v>19.133219</v>
-      </c>
-      <c r="O8">
-        <v>0.2737874857612962</v>
-      </c>
-      <c r="P8">
-        <v>0.3073728625014814</v>
-      </c>
-      <c r="Q8">
-        <v>0.2877094029728333</v>
-      </c>
-      <c r="R8">
-        <v>1.726256417837</v>
-      </c>
-      <c r="S8">
-        <v>0.05160214231994054</v>
-      </c>
-      <c r="T8">
-        <v>0.04121048562196095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.0451115</v>
-      </c>
-      <c r="H9">
-        <v>0.090223</v>
-      </c>
-      <c r="I9">
-        <v>0.1884751677983203</v>
-      </c>
-      <c r="J9">
-        <v>0.1340732727234901</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.839059333333334</v>
-      </c>
-      <c r="N9">
-        <v>14.517178</v>
-      </c>
-      <c r="O9">
-        <v>0.2077340809703377</v>
-      </c>
-      <c r="P9">
-        <v>0.2332167189067104</v>
-      </c>
-      <c r="Q9">
-        <v>0.2182972251156667</v>
-      </c>
-      <c r="R9">
-        <v>1.309783350694</v>
-      </c>
-      <c r="S9">
-        <v>0.03915271576831426</v>
-      </c>
-      <c r="T9">
-        <v>0.03126812875765692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.0451115</v>
-      </c>
-      <c r="H10">
-        <v>0.090223</v>
-      </c>
-      <c r="I10">
-        <v>0.1884751677983203</v>
-      </c>
-      <c r="J10">
-        <v>0.1340732727234901</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.635880999999999</v>
-      </c>
-      <c r="N10">
-        <v>15.271762</v>
-      </c>
-      <c r="O10">
-        <v>0.3277977418064026</v>
-      </c>
-      <c r="P10">
-        <v>0.2453390201294068</v>
-      </c>
-      <c r="Q10">
-        <v>0.3444660457315</v>
-      </c>
-      <c r="R10">
-        <v>1.377864182926</v>
-      </c>
-      <c r="S10">
-        <v>0.06178173439087222</v>
-      </c>
-      <c r="T10">
-        <v>0.03289340535552379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.0451115</v>
-      </c>
-      <c r="H11">
-        <v>0.090223</v>
-      </c>
-      <c r="I11">
-        <v>0.1884751677983203</v>
-      </c>
-      <c r="J11">
-        <v>0.1340732727234901</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.213926</v>
-      </c>
-      <c r="N11">
-        <v>9.641778</v>
-      </c>
-      <c r="O11">
-        <v>0.1379693692362262</v>
-      </c>
-      <c r="P11">
-        <v>0.1548940041643703</v>
-      </c>
-      <c r="Q11">
-        <v>0.144985022749</v>
-      </c>
-      <c r="R11">
-        <v>0.8699101364940001</v>
-      </c>
-      <c r="S11">
-        <v>0.02600380001782615</v>
-      </c>
-      <c r="T11">
-        <v>0.02076714606356303</v>
+        <v>0.3139640985787523</v>
       </c>
     </row>
   </sheetData>
